--- a/发布检查表-v0.3.xlsx
+++ b/发布检查表-v0.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6614EC20-C6C9-4349-9AD5-A6489D88E4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C182EBEF-0734-4A65-A4F4-4F2D94371900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="2355" windowWidth="21615" windowHeight="15645" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="系统登记" sheetId="2" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="143">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,10 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>版本配置库按照公司统一安排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用gitlab配置库</t>
   </si>
   <si>
@@ -500,10 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若为大版本发布，提供填写完成的《系统变更升级流程表格》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>形式不限，防止本系统变更导致其他系统不可用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,30 +524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从主干分支，根据tag版本号拉取源代码进行编译打包，生成发布包，.zip文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置库中需建立“发布文件”目录，发布材料（包括升级文件、《系统变更升级流程表格》、《技术方案》、《测试报告》、《升级方案》）归档到“发布文件”目录下备份。
-目录按发布时间整理：/发布文件/发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 每个产品的源代码按如下策略创建和管理分支：
-1）主分支master：存放线上运行的代码，不可随意变动
-2）开发分支develop：开发的起点，存放正在开发中的代码
-3）功能分支feature：可能存在多个，每个feature代表着一期需求或一个功能点，开发完成后删除。命名规则：分支类型 /上线日期-分支功能 ，例如: feature/220208-login
-4）预发布分支release：可能存在多个，每个release代表着一个版本功能已开发完成，进入测试阶段，测试出现 bug 后进行修复的分支，版本正式发布后删除。命名规则：分支类型 / 版本号 ，例如: release/v2.1.0
-5）热修复分支hotfix：此分支存在的意义是为了对已上线版本中发现的重大bug进行修复，修复验证通过后删除。命名规则：分支类型 / 线上版本号-对应bug号-修复备注 ，例如: hotfix/v2.1.14-bug0015
-6）开发完成后，从开发分支创建一个新的预发布分支release，部署到测试环境由测试人员进行系统测试，测试缺陷在release分支上修复。
-7）测试通过测试后，运维人员将预发布分支release提交至主分支master与开发分支develop，并在主分支添加版本标签tag，如V2.1.0。
-8）运维人员从master主分支拉取代码，进行打包（packging）
-注：
-master 分支权限、tag标签需设置仅运维人员管理，develop 分支仅开发负责人可以进行推送。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>若本次升级影响提供给其他系统的接口，提供被影响系统、功能范围说明，并通知相关产品组、市场组。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,7 +532,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>·升级文件至少包括：以升级口令命名的发布包{升级口令}.zip，升级脚本。
+    <t>版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端程序，必须向下兼容，若因特殊情况不能满足向下兼容，需要总经理同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端程序，能查看版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行验证工具，或执行主流程测试用例，获取明确的验证结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附部署图（含服务器ip信息）或列出服务器IP地址，以免部署遗漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要业务流程检查通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布后登录每台应用服务器，查看发布文件已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过/未通过/不适用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布后验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布执行检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布材料准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维人员从 配置库/产品发布库 目录下获取升级文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“产品发布库”中已有待发布的升级文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布材料整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须提供验证工具，能模拟主要业务流程，验证工具要有明确的验证成功或者失败的返回结果。若短期内无法提供工具，需提供业务流程测试用例、验证账号、数据验证脚本等。
+该验证工具用于发布后的冒烟测试，仅验证系统的每个功能模块是否都能够正常地运行，系统之间的连接是否正常，模块之间、系统之间的数据传输是否正常，页面显示是否正常，数据库连接是否正常等，不需要关心是否功能实现正确。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如，V2.03.20220418</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·升级文件至少包括：以版本号命名的发布包{版本号}.zip，升级脚本。
 ·发布包中包含编译后的程序包：
 web程序提交war包，
 app程序提交apk包、ipa包，
@@ -573,109 +606,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如：20220415.zip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如，20220415</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如，V2.1.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web程序、交易系统与后台程序，每台服务器发布前做程序备份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端程序，必须向下兼容，若因特殊情况不能满足向下兼容，需要总经理同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端程序，能查看版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行验证工具，或执行主流程测试用例，获取明确的验证结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行验证工具，或执行数据检查脚本，获取明确的验证结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附部署图（含服务器ip信息）或列出服务器IP地址，以免部署遗漏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要业务流程检查通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据完整性检查通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布后登录每台应用服务器，查看发布文件已更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过/未通过/不适用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布后验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布执行检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布材料准备</t>
+    <t>web程序、交易系统与后台程序，每台服务器发布前做程序备份，建立固定目录存放备份程序，如/app/backup/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若为大版本，《系统变更升级流程表格》、《技术方案》、《测试报告》、《升级方案》传入配置库“项目文档”目录下归档。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>本表供各产品组的发布人员核对检查，用以标准化上线发布过程，减少人为操作风险。
-发布完成后所有事项均需有检查结果，视实际情况可增加检查项。
-对于使用自动化升级平台部署的产品组，工具平台替代执行的事项无需重复检查，平台未覆盖的事项需人工核对自检。
-原则上，每次发布均需完成检查，并将检查结果提交至产品经理。</t>
+每次发布均需完成检查，发布完成后所有事项均需有检查结果，视实际情况可增加检查项。
+对于使用自动化升级平台部署的产品组，工具平台替代执行的事项无需重复检查，平台未覆盖的事项需人工核对自检。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>必须提供验证工具，能模拟主要业务流程</t>
+      <t xml:space="preserve">版本配置库按照公司统一安排。
+配置管理基本要求：
+</t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、检查数据完整性</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
+        <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>，</t>
+      <t>1、启动与结束：</t>
     </r>
     <r>
       <rPr>
@@ -683,25 +642,240 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>验证工具要有明确的验证成功或者失败的返回结果。若短期内无法提供工具，需提供业务流程测试用例、验证账号、数据验证脚本等。</t>
+      <t xml:space="preserve">配置库按产品组分配区域，每个产品在产品组区域内创建“子项目”，新产品项目启动后在原产品组区域内创建子项目，新增产品组需向公司配置管理员统一申请。配置库长期存在，不随项目结束或产品下线而关闭。
+</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证的颗粒度：仅做冒烟测试，确保基本功能可用，本次上线功能的详细验证，项目组另行安排。数据完整性检查先删掉了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布包MD5的补充，先删掉了。对外部客户的客户端软件，是否强制需全部提供MD5码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、项目或子项目至少需设立如下目录：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1）项目文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：存放立项文档、项目管理文档、开发过程文档、结项文档等，可参考配置项如下，其中*为必须纳入的配置项：
+·*立项文档：*立项申请、*立项调研报告、*项目预算表
+·项目管理文档：项目迭代计划、质量保证计划等
+·开发过程文档：技术方案、需求规格说明书、架构设计文档、单元测试记录、代码审查记录、测试用例、测试报告、升级方案、系统变更升级流程表格、发布检查表等
+·*结项文档：*验收报告
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2）*源代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：每个产品的源代码原则上必须在配置库中管理，且按照一定规则管理（具体见下一条）。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3）*产品发布库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：关键且必要，每次升级的升级包需提交至该目录，运维人员必须从配置库获取升级包执行发布。
+注：第一层目录结构不可更改，子目录结构由产品经理根据实际情况制定。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3、权限控制：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">产品经理按“最小需要”原则负责产品组区域内的访问权限。 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4、配置项命名规则：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+配置项命名应按照标识唯一、易于区分和记忆。
+对于开发过程文档的命名规则：N-产品简称-需求概述-文件名称，例如N-支点-增加子基金评估报告-需求规格说明书。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5、版本命名规则：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+·软件系统的版本号由3部分构成，即主版本号+次版本号+修改号。主版本号1位，只有当系统在结构和功能上有重大突破改进后才发生变化；次版本号有2位；修改号8位，采用提交时的日期，当系统进行任何修改后，包括数据库结构发生变化，修改号都要随之改变。例如：V2.03.20220418。
+·与第三方合作开发或定制的软件，版本号维持原规则。
+·文档的版本号由2部分构成，V X.Y,Y代表未经过评审的内部版本，每次变更并评审通过后，X+1。例如V1.0为首次评审通过后的正式版本，V1.1为内部修改版，V2.0表示文档经过变更、变更内容已评审通过的正式版本。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要调整点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加配置管理基本要求，在第5条中，固定第一层目录为：项目文件、源代码、产品发布库。
+关于软件版本号，需要注意的是，在N视界上挂的极星客户端版本号，也需延续原规则：当前生产版本V2.0.4.45，2表示是4.0版本后台，1指原来3.9版本后台；0表示大版本号，一般功能变动特别大会调整，比如新增期货市场这个会进1；4表示小版本号，一般每周发新版本这个会调整；45是内部版本号，比如43是测试版，44预生产版，45生产版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除升级口令的概念，比较绕口，发布包全部用版本号命名区分，影响第8条。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整分工，开发人员从主分支打包，包文件传到配置库，运维人员从配置库取包。影响第5、7条缪奥数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将大版本升级华鑫证券所要求提供的4项材料，归拢到最后一条检查。影响第18条。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 每个产品的源代码在配置库中管理，按如下策略创建和管理分支：
+1）主分支master：存放线上运行的代码，不可随意变动
+2）开发分支develop：开发的起点，存放正在开发中的代码
+3）功能分支feature：可能存在多个，每个feature代表着一期需求或一个功能点，开发完成后删除。命名规则：分支类型 /上线日期-分支功能 ，例如: feature/20220208-login
+4）预发布分支release：可能存在多个，每个release代表着一个版本功能已开发完成，进入测试阶段，测试出现 bug 后进行修复的分支，版本正式发布后删除。命名规则：分支类型 / 版本号 ，例如: release/V2.03.20220414
+5）热修复分支hotfix：此分支存在的意义是为了对已上线版本中发现的重大bug进行修复，修复验证通过后删除。命名规则：分支类型 / 线上版本号-对应bug号-修复备注 ，例如: hotfix/V2.03.20220414-bug001
+6）开发完成后，从开发分支创建一个新的预发布分支release，部署到测试环境由测试人员进行系统测试，测试缺陷在release分支上修复。
+7）通过测试后，将预发布分支release提交至主分支master与开发分支develop，并在主分支添加版本标签tag，如V2.03.20220418。
+8）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从master主分支拉取代码，进行打包（packging），生成发布包，.zip文件，以待发布的版本号命名，如：V2.03.20220418.zip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+注：
+master 分支权限、tag标签需设置仅专人管理，develop 分支仅开发负责人可以进行推送。
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,20 +996,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <strike/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -865,7 +1052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,21 +1293,36 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,34 +1332,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1576,10 +1769,10 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>73</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1588,7 +1781,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="40" t="s">
         <v>43</v>
       </c>
       <c r="J4" s="1"/>
@@ -1602,15 +1795,15 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="46"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -1622,15 +1815,15 @@
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="39"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -1642,10 +1835,10 @@
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="51" t="s">
         <v>87</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1654,7 +1847,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="40" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="1"/>
@@ -1668,15 +1861,15 @@
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="46"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
@@ -1700,7 +1893,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="39"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
@@ -1712,10 +1905,10 @@
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1724,7 +1917,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="40" t="s">
         <v>45</v>
       </c>
       <c r="J10" s="1"/>
@@ -1738,15 +1931,15 @@
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="46"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
@@ -1758,15 +1951,15 @@
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="46"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
@@ -1778,15 +1971,15 @@
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="47"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="46"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
@@ -1798,15 +1991,15 @@
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="47"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="46"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
@@ -1818,15 +2011,15 @@
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="47"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="39"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
@@ -1850,7 +2043,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="40" t="s">
         <v>47</v>
       </c>
       <c r="J16" s="1"/>
@@ -1876,7 +2069,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="39"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1892,10 +2085,10 @@
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="51" t="s">
         <v>83</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1904,7 +2097,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="40" t="s">
         <v>48</v>
       </c>
       <c r="J18" s="1"/>
@@ -1918,15 +2111,15 @@
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="46"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
@@ -1938,15 +2131,15 @@
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="39"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
@@ -2022,7 +2215,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="40" t="s">
         <v>51</v>
       </c>
       <c r="J23" s="1"/>
@@ -2048,7 +2241,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="39"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
@@ -2072,7 +2265,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="43" t="s">
         <v>52</v>
       </c>
       <c r="J25" s="1"/>
@@ -2098,7 +2291,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="50"/>
+      <c r="I26" s="44"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
@@ -2126,7 +2319,7 @@
       <c r="H27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="51"/>
+      <c r="I27" s="45"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
@@ -2138,10 +2331,10 @@
       <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="46" t="s">
         <v>75</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -2150,7 +2343,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="38" t="s">
+      <c r="I28" s="40" t="s">
         <v>46</v>
       </c>
       <c r="J28" s="1"/>
@@ -2164,15 +2357,15 @@
       <c r="B29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="47"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="39"/>
+      <c r="I29" s="41"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
@@ -2261,12 +2454,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="18">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D28:D29"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C8"/>
@@ -2279,6 +2466,12 @@
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2288,23 +2481,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55FC7FB-8EE6-4029-9BEE-AA5C89B1595F}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="77.75" customWidth="1"/>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="103.125" customWidth="1"/>
     <col min="3" max="3" width="22.625" style="36" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="52" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -2320,10 +2513,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -2333,177 +2526,183 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>123</v>
+      <c r="B4" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>105</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>3</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="372" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>136</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
     </row>
-    <row r="9" spans="1:6" ht="216" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="34"/>
+        <v>127</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
     </row>
-    <row r="11" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.15">
       <c r="A11" s="26">
         <v>8</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>109</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C11" s="34"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
     </row>
-    <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
         <v>9</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.15">
-      <c r="A13" s="26">
+      <c r="B12" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="27">
         <v>10</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A14" s="26">
-        <v>11</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>141</v>
+      <c r="B14" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
     </row>
-    <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A15" s="26">
-        <v>12</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="27">
+        <v>11</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="27"/>
@@ -2511,171 +2710,182 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="35" t="s">
+      <c r="A16" s="27">
+        <v>12</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="F17" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="27">
+    </row>
+    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A18" s="29">
         <v>13</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="27">
-        <v>14</v>
-      </c>
       <c r="B18" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="27">
+        <v>14</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="29">
         <v>15</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A21" s="29">
+      <c r="B20" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="27">
         <v>16</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>120</v>
-      </c>
+      <c r="B21" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="34"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="27">
+    <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A22" s="29">
         <v>17</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="B22" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="29">
+      <c r="A23" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="29">
         <v>18</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="27">
-        <v>19</v>
-      </c>
       <c r="B24" s="25" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C24" s="34"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A25" s="29">
-        <v>20</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-    </row>
-    <row r="26" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A26" s="54">
-        <v>21</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="B29" s="55" t="s">
-        <v>142</v>
-      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="53"/>
+      <c r="A30" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="56"/>
+    </row>
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="A31" s="56">
+        <v>1</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="56">
+        <v>2</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="56">
+        <v>3</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="56">
+        <v>4</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="53"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="53"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="54"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
